--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1489316.066233513</v>
+        <v>1486980.955031533</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283201</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>56.91750123718787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>299.4503736136747</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.27834706433272</v>
+        <v>112.3581576295187</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>360.3655810012722</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>37.80655536594458</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.460759202332103</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>152.5449695980481</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>155.501198769347</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>41.41379075544626</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>1.897177112446248</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>6.94314768824729</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710053</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881257</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>70.81964134445047</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>6.228861054224671</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>115.9451354278033</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833647</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699795</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>142.1343012721642</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>38.61213096654825</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>101.6969570046953</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>128.3548363691486</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.9604756260741</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>41.02686156550408</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365897</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>94.91529601901487</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,10 +4144,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>35.41770597126713</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1211.708328559739</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="C2" t="n">
-        <v>842.745811619327</v>
+        <v>901.822256251568</v>
       </c>
       <c r="D2" t="n">
-        <v>842.745811619327</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>842.745811619327</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>431.7599068297195</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>420.0955605944124</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,10 +4328,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4364,16 +4364,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1601.84766053555</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1211.708328559739</v>
+        <v>1270.78477319198</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4410,19 +4410,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1852.283970943244</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2184.354406119406</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.0244191129138</v>
+        <v>270.5950217532751</v>
       </c>
       <c r="C4" t="n">
-        <v>276.0244191129138</v>
+        <v>270.5950217532751</v>
       </c>
       <c r="D4" t="n">
-        <v>276.0244191129138</v>
+        <v>270.5950217532751</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>793.4311400478917</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>504.0139700109311</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>276.0244191129138</v>
+        <v>673.036065727045</v>
       </c>
       <c r="Y4" t="n">
-        <v>276.0244191129138</v>
+        <v>452.2434865835148</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.246750862032</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="C5" t="n">
-        <v>880.2842339216199</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>1141.96181897037</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4598,19 +4598,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>2399.451681163045</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>2025.985922901965</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y5" t="n">
-        <v>1635.846590926153</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300792</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.3612475582983</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C7" t="n">
-        <v>349.3612475582983</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>349.3612475582983</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
         <v>199.9856847044969</v>
@@ -4756,19 +4756,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>859.5709967387889</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>570.1538267018284</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="X7" t="n">
-        <v>570.1538267018284</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="Y7" t="n">
-        <v>349.3612475582983</v>
+        <v>381.6341495347366</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1685.375546116516</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033361</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="D8" t="n">
-        <v>581.1420803965857</v>
+        <v>958.1473305693542</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>572.3590779711099</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>565.4135772219064</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>150.3411270669029</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>677.4387267498528</v>
+        <v>681.6115596545839</v>
       </c>
       <c r="C10" t="n">
-        <v>677.4387267498528</v>
+        <v>512.675376726677</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>362.5587373143412</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>214.6456437319481</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>214.6456437319481</v>
       </c>
       <c r="G10" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T10" t="n">
-        <v>1920.281267595314</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="U10" t="n">
-        <v>1631.178400720957</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V10" t="n">
-        <v>1376.49391251507</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W10" t="n">
-        <v>1087.07674247811</v>
+        <v>902.404138798114</v>
       </c>
       <c r="X10" t="n">
-        <v>859.0871915800925</v>
+        <v>902.404138798114</v>
       </c>
       <c r="Y10" t="n">
-        <v>859.0871915800925</v>
+        <v>681.6115596545839</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797182</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797182</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782956</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452619</v>
+        <v>943.5102657467552</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5495,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C19" t="n">
-        <v>816.8474788130626</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D19" t="n">
-        <v>666.7308394007268</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5969,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.562009178173</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,58 +6215,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327652</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048583</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6692,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961526</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V34" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W34" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y34" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1522.21291626627</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,34 +7190,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2338.476105524073</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524073</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868271</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662384</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516144</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327652</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048583</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925226</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101294</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630049</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>186.5911984019042</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>15.64270034434975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>280.1079373569279</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-7.579764055035946e-14</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.955857780762017e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>37.12601365260457</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>154.8900140445867</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856555</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>211.1765892730636</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>30.48882721876583</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788741</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.3683537222893</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0033420516628</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856194</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>65.54986409393254</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>123.7828069546794</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.9994244361405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>191.2691783702293</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>110.0033420516641</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614291</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614293</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614293</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614293</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062534</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403375</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551158</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>1.670698566158535e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,37 +26421,37 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.23512810795</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756577</v>
+        <v>9337.200356756599</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831264.7235426898</v>
+        <v>-831264.72354269</v>
       </c>
       <c r="C6" t="n">
-        <v>283487.0600332298</v>
+        <v>283487.06003323</v>
       </c>
       <c r="D6" t="n">
-        <v>124065.7900353378</v>
+        <v>124065.7900353385</v>
       </c>
       <c r="E6" t="n">
-        <v>68594.43281823516</v>
+        <v>68559.69489279889</v>
       </c>
       <c r="F6" t="n">
-        <v>394006.8946255898</v>
+        <v>393972.1567001541</v>
       </c>
       <c r="G6" t="n">
-        <v>394006.8946255898</v>
+        <v>393972.1567001542</v>
       </c>
       <c r="H6" t="n">
-        <v>394006.8946255899</v>
+        <v>393972.1567001543</v>
       </c>
       <c r="I6" t="n">
-        <v>394006.8946255899</v>
+        <v>393972.1567001542</v>
       </c>
       <c r="J6" t="n">
-        <v>226401.7168156076</v>
+        <v>226366.9788901719</v>
       </c>
       <c r="K6" t="n">
-        <v>394006.8946255901</v>
+        <v>393972.1567001542</v>
       </c>
       <c r="L6" t="n">
-        <v>345712.9246173995</v>
+        <v>345678.1866919638</v>
       </c>
       <c r="M6" t="n">
-        <v>308951.8666900786</v>
+        <v>308917.1287646425</v>
       </c>
       <c r="N6" t="n">
-        <v>394006.89462559</v>
+        <v>393972.1567001543</v>
       </c>
       <c r="O6" t="n">
-        <v>394006.8946255902</v>
+        <v>393972.1567001541</v>
       </c>
       <c r="P6" t="n">
-        <v>394006.8946255901</v>
+        <v>393972.1567001542</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,17 +27015,17 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973547</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>297.7655403834951</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.56817894873069</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>71.15561558223645</v>
+        <v>34.07580501705048</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>21.56478907098955</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>311.4344133514684</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>143.9732034442371</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>66.03968375404665</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>226.4291713029148</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>253.1939736318743</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.128631146582</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>212.6058015879219</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.571301715478522e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30441,7 +30441,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>653.385039637378</v>
+        <v>301.6445156724569</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>246.9596973201451</v>
+        <v>508.3747716989733</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437242</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742437</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>729.0844763571693</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>434.1786358382023</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>704.1404939038093</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>483.3274636075158</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>230.9747494877451</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>708.9385480032147</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>409.0029787211719</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>577.7882979947782</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>265.322229467882</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35024,16 +35024,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>615.5326193530509</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>510.7887951929335</v>
+        <v>159.0482712280125</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>108.4053175402709</v>
+        <v>369.8203919190992</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992797</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>586.9504424351509</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>291.5823913937579</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>572.7987818204761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001047</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>340.7312191630714</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>97.00034207341486</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>566.8045140811963</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>266.8689447991536</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
